--- a/doc/SBMT_GPIO.xlsx
+++ b/doc/SBMT_GPIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SharpBladeMotorTester\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A596F289-69E5-4772-9CF7-45A9562A23E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E102775-5BA8-454C-8AE1-1ED91744F1C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="7080" windowWidth="21840" windowHeight="13140" xr2:uid="{37675AE8-1D5A-4047-BE3D-8ECAFD6E365F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{37675AE8-1D5A-4047-BE3D-8ECAFD6E365F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="179">
   <si>
     <t>GPIO</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -629,14 +629,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ADC SPI CLK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC SPI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>OLED SPI D0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -653,18 +645,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ADC SPI CS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ADC DRDY</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ADC PDWN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ADC RST</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -714,6 +698,54 @@
   </si>
   <si>
     <t>输入设备 CLK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM3_CH4/TIM8_CH3N/TIM1_CH3N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC SYNC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC SPI SCK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC SPI DOUT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC SPI DIN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC CS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF MISO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF MOSI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF SCK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF CS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>光电 D0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1120,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C25492B-01A5-4C48-A51E-2B0F019826D6}">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1182,17 +1214,17 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D6" t="s">
-        <v>164</v>
+      <c r="D6" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1338,7 +1370,7 @@
         <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1352,7 +1384,7 @@
         <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1366,7 +1398,7 @@
         <v>96</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1380,59 +1412,48 @@
         <v>97</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>156</v>
+      <c r="B24" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>157</v>
+      <c r="B25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D26" t="s">
-        <v>165</v>
+      <c r="D26" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>158</v>
+      <c r="A27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1577,7 +1598,7 @@
         <v>110</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1591,7 +1612,7 @@
         <v>111</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1605,7 +1626,7 @@
         <v>112</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1619,7 +1640,7 @@
         <v>113</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1633,7 +1654,7 @@
         <v>114</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1647,7 +1668,7 @@
         <v>115</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1661,7 +1682,7 @@
         <v>116</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1675,7 +1696,7 @@
         <v>117</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1689,7 +1710,7 @@
         <v>118</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1703,7 +1724,7 @@
         <v>119</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1812,25 +1833,31 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="D59" s="2" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>130</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1864,36 +1891,45 @@
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>131</v>
       </c>
+      <c r="D64" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="D65" s="2" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>133</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1907,7 +1943,7 @@
         <v>134</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1921,40 +1957,49 @@
         <v>135</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="D69" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B70" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="D70" s="2" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>138</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1968,7 +2013,7 @@
         <v>139</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1982,7 +2027,7 @@
         <v>140</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2024,7 +2069,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">

--- a/doc/SBMT_GPIO.xlsx
+++ b/doc/SBMT_GPIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SharpBladeMotorTester\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E102775-5BA8-454C-8AE1-1ED91744F1C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630411F8-BDC3-45D9-9161-F3B1C254255F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{37675AE8-1D5A-4047-BE3D-8ECAFD6E365F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="183">
   <si>
     <t>GPIO</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -746,6 +746,22 @@
   </si>
   <si>
     <t>光电 D0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM CH1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM CH2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM CH3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM CH4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1152,7 +1168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C25492B-01A5-4C48-A51E-2B0F019826D6}">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
@@ -1316,47 +1332,59 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>93</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">

--- a/doc/SBMT_GPIO.xlsx
+++ b/doc/SBMT_GPIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SharpBladeMotorTester\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630411F8-BDC3-45D9-9161-F3B1C254255F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C11F33-22A2-4BC5-A9C1-9C051B56F781}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{37675AE8-1D5A-4047-BE3D-8ECAFD6E365F}"/>
+    <workbookView xWindow="-21720" yWindow="7080" windowWidth="21840" windowHeight="13140" xr2:uid="{37675AE8-1D5A-4047-BE3D-8ECAFD6E365F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -709,59 +709,59 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>ADC SPI SCK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC SPI DOUT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC SPI DIN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC CS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF MISO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF MOSI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF SCK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF CS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>光电 D0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM CH1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM CH2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM CH3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM CH4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>ADC SYNC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC SPI SCK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC SPI DOUT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC SPI DIN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC CS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TF MISO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TF MOSI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TF SCK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TF CS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>光电 D0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM CH1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM CH2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM CH3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM CH4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C25492B-01A5-4C48-A51E-2B0F019826D6}">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1342,7 +1342,7 @@
         <v>89</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1356,7 +1356,7 @@
         <v>91</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1370,7 +1370,7 @@
         <v>92</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1384,7 +1384,7 @@
         <v>93</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1398,7 +1398,7 @@
         <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1412,7 +1412,7 @@
         <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1426,7 +1426,7 @@
         <v>96</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1440,7 +1440,7 @@
         <v>97</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1929,7 +1929,7 @@
         <v>131</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1943,7 +1943,7 @@
         <v>132</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1957,7 +1957,7 @@
         <v>133</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1971,7 +1971,7 @@
         <v>134</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1985,7 +1985,7 @@
         <v>135</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2013,7 +2013,7 @@
         <v>137</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2027,7 +2027,7 @@
         <v>138</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">

--- a/doc/SBMT_GPIO.xlsx
+++ b/doc/SBMT_GPIO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SharpBladeMotorTester\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C11F33-22A2-4BC5-A9C1-9C051B56F781}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE75D10-7BF6-460D-8D98-186633DEA29A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="7080" windowWidth="21840" windowHeight="13140" xr2:uid="{37675AE8-1D5A-4047-BE3D-8ECAFD6E365F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{37675AE8-1D5A-4047-BE3D-8ECAFD6E365F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="187">
   <si>
     <t>GPIO</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -762,6 +762,22 @@
   </si>
   <si>
     <t>ADC SYNC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12_CH14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12_CH15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aux ADC 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aux ADC 2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1168,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C25492B-01A5-4C48-A51E-2B0F019826D6}">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1444,19 +1460,31 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
-        <v>1</v>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
-        <v>1</v>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">

--- a/doc/SBMT_GPIO.xlsx
+++ b/doc/SBMT_GPIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SharpBladeMotorTester\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE75D10-7BF6-460D-8D98-186633DEA29A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8E4C59-7DFF-473A-A8B9-CADA9C55A939}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{37675AE8-1D5A-4047-BE3D-8ECAFD6E365F}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" xr2:uid="{37675AE8-1D5A-4047-BE3D-8ECAFD6E365F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,14 +549,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>USART1_CTS/CAN1_RX/TIM1_CH4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART1_RTS/CAN1_TX/TIM1_ETR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SPI3_SCK/UART4_TX/USART3_TX</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -778,6 +770,14 @@
   </si>
   <si>
     <t>Aux ADC 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_CTS/CAN1_RX/TIM1_CH4/USB_D+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_RTS/CAN1_TX/TIM1_ETR/USB_D-</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1184,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C25492B-01A5-4C48-A51E-2B0F019826D6}">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1256,7 +1256,7 @@
         <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1358,7 +1358,7 @@
         <v>89</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1372,7 +1372,7 @@
         <v>91</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1386,7 +1386,7 @@
         <v>92</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1400,7 +1400,7 @@
         <v>93</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1414,7 +1414,7 @@
         <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1428,7 +1428,7 @@
         <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1442,7 +1442,7 @@
         <v>96</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1456,7 +1456,7 @@
         <v>97</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,10 +1467,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1481,10 +1481,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1498,18 +1498,18 @@
         <v>98</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1654,7 +1654,7 @@
         <v>110</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1668,7 +1668,7 @@
         <v>111</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1682,7 +1682,7 @@
         <v>112</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1696,7 +1696,7 @@
         <v>113</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1710,7 +1710,7 @@
         <v>114</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1724,7 +1724,7 @@
         <v>115</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1738,7 +1738,7 @@
         <v>116</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1752,7 +1752,7 @@
         <v>117</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1766,7 +1766,7 @@
         <v>118</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1780,7 +1780,7 @@
         <v>119</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1871,7 +1871,7 @@
         <v>127</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1885,7 +1885,7 @@
         <v>128</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1896,10 +1896,10 @@
         <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1910,10 +1910,10 @@
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1954,10 +1954,10 @@
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1968,10 +1968,10 @@
         <v>1</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1982,10 +1982,10 @@
         <v>1</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1996,10 +1996,10 @@
         <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2010,10 +2010,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2024,10 +2024,10 @@
         <v>1</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2038,10 +2038,10 @@
         <v>1</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2052,10 +2052,10 @@
         <v>1</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2066,10 +2066,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2080,10 +2080,10 @@
         <v>1</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2094,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2136,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2147,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2158,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -2180,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">

--- a/doc/SBMT_GPIO.xlsx
+++ b/doc/SBMT_GPIO.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SharpBladeMotorTester\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8E4C59-7DFF-473A-A8B9-CADA9C55A939}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE016FA-7573-433E-A6A0-5710C7854E1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" xr2:uid="{37675AE8-1D5A-4047-BE3D-8ECAFD6E365F}"/>
+    <workbookView xWindow="-21720" yWindow="7080" windowWidth="21840" windowHeight="13140" xr2:uid="{37675AE8-1D5A-4047-BE3D-8ECAFD6E365F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="194">
   <si>
     <t>GPIO</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -593,191 +592,218 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>I2C1_SDA/USART1_RX/TIM4_CH2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM4_CH3/TIM10_CH1/I2C1_SCL/CAN1_RX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2_NSS/TIM4_CH4/TIM11_CH1/I2C1_SDA/CAN1_TX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM4_ETR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试串口RX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试串口TX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED SPI D0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED SPI D1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED SPI DC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED SPI CS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC DRDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC RST</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C1_SMBA/CAN2_RX/TIM3_CH2/SPI1_MOSI/SPI3_MOSI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED RST</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN 预留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据串口RX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据串口TX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入设备 A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入设备 B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入设备 Q</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入设备 S/L</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入设备 CLK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM3_CH4/TIM8_CH3N/TIM1_CH3N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC SPI SCK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC SPI DOUT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC SPI DIN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC CS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF MISO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF MOSI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF SCK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF CS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>光电 D0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM CH1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM CH2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM CH3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM CH4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC SYNC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12_CH14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12_CH15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aux ADC 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aux ADC 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_CTS/CAN1_RX/TIM1_CH4/USB_D+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_RTS/CAN1_TX/TIM1_ETR/USB_D-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOUT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUSY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RST</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>I2C1_SCL/TIM4_CH1/CAN2_TX/USART1_TX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2C1_SDA/USART1_RX/TIM4_CH2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM4_CH3/TIM10_CH1/I2C1_SCL/CAN1_RX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI2_NSS/TIM4_CH4/TIM11_CH1/I2C1_SDA/CAN1_TX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM4_ETR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调试串口RX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调试串口TX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OLED SPI D0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OLED SPI D1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OLED SPI DC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OLED SPI CS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC DRDY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC RST</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2C1_SMBA/CAN2_RX/TIM3_CH2/SPI1_MOSI/SPI3_MOSI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OLED RST</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAN 预留</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据串口RX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据串口TX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入设备 A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入设备 B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入设备 Q</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入设备 S/L</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入设备 CLK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM3_CH4/TIM8_CH3N/TIM1_CH3N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC SPI SCK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC SPI DOUT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC SPI DIN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC CS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TF MISO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TF MOSI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TF SCK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TF CS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>光电 D0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM CH1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM CH2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM CH3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM CH4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC SYNC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC12_CH14</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC12_CH15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aux ADC 1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aux ADC 2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART1_CTS/CAN1_RX/TIM1_CH4/USB_D+</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART1_RTS/CAN1_TX/TIM1_ETR/USB_D-</t>
+  </si>
+  <si>
+    <t>光电</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1182,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C25492B-01A5-4C48-A51E-2B0F019826D6}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1256,7 +1282,7 @@
         <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1358,7 +1384,7 @@
         <v>89</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1372,7 +1398,7 @@
         <v>91</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1386,7 +1412,7 @@
         <v>92</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1400,7 +1426,7 @@
         <v>93</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1414,7 +1440,7 @@
         <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1428,7 +1454,7 @@
         <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1442,7 +1468,7 @@
         <v>96</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1456,7 +1482,7 @@
         <v>97</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,10 +1493,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1481,10 +1507,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1498,18 +1524,18 @@
         <v>98</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>165</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1631,6 +1657,9 @@
       <c r="C38" t="s">
         <v>108</v>
       </c>
+      <c r="D38" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -1654,7 +1683,7 @@
         <v>110</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1668,7 +1697,7 @@
         <v>111</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1682,7 +1711,7 @@
         <v>112</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1696,7 +1725,7 @@
         <v>113</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1710,7 +1739,7 @@
         <v>114</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1724,7 +1753,7 @@
         <v>115</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1738,7 +1767,7 @@
         <v>116</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1752,7 +1781,7 @@
         <v>117</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1766,10 +1795,10 @@
         <v>118</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
@@ -1780,10 +1809,10 @@
         <v>119</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1794,7 +1823,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1805,7 +1834,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1816,7 +1845,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1827,7 +1856,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1838,7 +1867,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1849,7 +1878,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1860,7 +1889,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
@@ -1871,10 +1900,10 @@
         <v>127</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
@@ -1885,10 +1914,10 @@
         <v>128</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
@@ -1896,13 +1925,13 @@
         <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
@@ -1910,13 +1939,13 @@
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
@@ -1926,7 +1955,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
@@ -1936,7 +1965,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
@@ -1946,7 +1975,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
@@ -1957,10 +1986,13 @@
         <v>129</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
@@ -1971,10 +2003,13 @@
         <v>130</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
@@ -1985,10 +2020,13 @@
         <v>131</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
@@ -1999,10 +2037,13 @@
         <v>132</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
@@ -2013,10 +2054,13 @@
         <v>133</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>69</v>
       </c>
@@ -2027,10 +2071,13 @@
         <v>134</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
@@ -2041,10 +2088,10 @@
         <v>135</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
@@ -2055,10 +2102,10 @@
         <v>136</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>72</v>
       </c>
@@ -2069,10 +2116,10 @@
         <v>137</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>73</v>
       </c>
@@ -2083,10 +2130,10 @@
         <v>138</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2097,7 +2144,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
@@ -2107,7 +2154,7 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
@@ -2117,7 +2164,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2125,10 +2172,10 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2136,10 +2183,10 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2147,10 +2194,10 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2158,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -2169,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -2180,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">

--- a/doc/SBMT_GPIO.xlsx
+++ b/doc/SBMT_GPIO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SharpBladeMotorTester\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE016FA-7573-433E-A6A0-5710C7854E1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB9FEF7-A93D-483D-A27E-C4BFD9E55655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="7080" windowWidth="21840" windowHeight="13140" xr2:uid="{37675AE8-1D5A-4047-BE3D-8ECAFD6E365F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{37675AE8-1D5A-4047-BE3D-8ECAFD6E365F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1210,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C25492B-01A5-4C48-A51E-2B0F019826D6}">
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1648,16 +1648,16 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2092,16 +2092,16 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+      <c r="A71" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
         <v>136</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" t="s">
         <v>174</v>
       </c>
     </row>
